--- a/docs/EjemploMapa.xlsx
+++ b/docs/EjemploMapa.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="3">
   <si>
     <t>M</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>P</t>
-  </si>
-  <si>
-    <t>J</t>
   </si>
 </sst>
 </file>
@@ -59,7 +56,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,12 +87,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -288,7 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -574,7 +565,7 @@
   <dimension ref="B1:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,9 +1097,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="15" t="s">
-        <v>3</v>
-      </c>
+      <c r="Q16" s="15"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
